--- a/src/main/resources/excel/sample1.xlsx
+++ b/src/main/resources/excel/sample1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NH\Desktop\project\excelApplication\excelApplication\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C80C8A0-A46A-407C-857D-F6F56FDC4C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2927CD4D-186F-4981-A3E3-9EABDEEC7917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{F88E1862-A336-4504-B04A-12493C452B06}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="20">
   <si>
     <t>1월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,6 +90,22 @@
   </si>
   <si>
     <t>총합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충청도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 일자 기준으로 이번달만 합계에 값이 입력됨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -99,9 +115,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +178,29 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="HY헤드라인M"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="휴먼모음T"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="휴먼모음T"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -350,7 +389,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -405,47 +444,56 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="7" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="8" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="9" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="11" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="12" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="13" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="7" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="8" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="9" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="11" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="12" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="13" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -797,11 +845,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40403BAB-4EEA-4EBE-B5DF-4672337A2B2A}">
-  <dimension ref="A3:N8"/>
+  <dimension ref="A2:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
+      <pane xSplit="17" ySplit="4" topLeftCell="R5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R1" sqref="R1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -810,17 +860,29 @@
     <col min="3" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="18" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N2" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+    </row>
+    <row r="3" spans="1:17" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="32" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="18" customFormat="1" ht="17" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" s="32" customFormat="1" ht="17" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="1:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -864,24 +926,164 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="31">
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="30">
         <f>SUM(B8:M8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="30">
+        <f>SUM(B13:M13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="N17" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="30">
+        <f>SUM(B18:M18)</f>
         <v>0</v>
       </c>
     </row>
